--- a/DataSheets/CreateSalesOrder_DataSheet.xlsx
+++ b/DataSheets/CreateSalesOrder_DataSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Soap UI Projects2\test_wsdl_update_composite\DataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ArthrexWebServicesSQA\DotNet\test_wsdl_update_composite\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="20700" windowHeight="11450"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="20700" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="TC1 Smoke Test" sheetId="1" r:id="rId1"/>
@@ -4040,68 +4040,68 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AX1" sqref="AX1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="5"/>
-    <col min="2" max="2" width="38.54296875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="5" customWidth="1"/>
-    <col min="7" max="11" width="9.1796875" style="5"/>
-    <col min="12" max="12" width="8.1796875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="5"/>
-    <col min="14" max="14" width="12.81640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="5"/>
-    <col min="16" max="16" width="20.81640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="5"/>
-    <col min="18" max="18" width="30.453125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" style="5" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="17.1796875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" style="12" customWidth="1"/>
-    <col min="25" max="27" width="23.7265625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="12.81640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="8.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="12.85546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="20.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="5"/>
+    <col min="18" max="18" width="30.42578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="12" customWidth="1"/>
+    <col min="25" max="27" width="23.7109375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="12" customWidth="1"/>
     <col min="29" max="29" width="13" style="5" customWidth="1"/>
-    <col min="30" max="30" width="18.26953125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" style="5" customWidth="1"/>
     <col min="31" max="31" width="12" style="5" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" style="5" customWidth="1"/>
-    <col min="33" max="33" width="13.26953125" style="5" customWidth="1"/>
-    <col min="34" max="34" width="16.54296875" style="5" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="9" customWidth="1"/>
-    <col min="36" max="37" width="12.7265625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="9.1796875" style="5"/>
-    <col min="39" max="39" width="12.81640625" style="12" customWidth="1"/>
-    <col min="40" max="40" width="9.1796875" style="12"/>
-    <col min="41" max="41" width="14.1796875" style="12" customWidth="1"/>
-    <col min="42" max="42" width="9.1796875" style="5"/>
-    <col min="43" max="43" width="13.26953125" style="5" customWidth="1"/>
-    <col min="44" max="44" width="16.54296875" style="5" customWidth="1"/>
-    <col min="45" max="45" width="11.81640625" style="9" customWidth="1"/>
-    <col min="46" max="46" width="17.1796875" style="9" customWidth="1"/>
-    <col min="47" max="47" width="12.7265625" style="12" customWidth="1"/>
-    <col min="48" max="48" width="15.453125" style="12" customWidth="1"/>
-    <col min="49" max="49" width="14.453125" style="12" customWidth="1"/>
-    <col min="50" max="52" width="9.1796875" style="12"/>
-    <col min="53" max="53" width="13.26953125" style="12" customWidth="1"/>
-    <col min="54" max="54" width="16.54296875" style="12" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" style="9" customWidth="1"/>
-    <col min="56" max="56" width="17.1796875" style="9" customWidth="1"/>
-    <col min="57" max="57" width="12.7265625" style="12" customWidth="1"/>
-    <col min="58" max="58" width="15.453125" style="12" customWidth="1"/>
-    <col min="59" max="61" width="14.453125" style="12" customWidth="1"/>
-    <col min="62" max="63" width="8.7265625"/>
-    <col min="64" max="65" width="9.1796875" style="1"/>
-    <col min="66" max="66" width="11.81640625" style="9" customWidth="1"/>
-    <col min="67" max="16384" width="9.1796875" style="2"/>
+    <col min="32" max="32" width="14.5703125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" style="5" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" style="5" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" style="9" customWidth="1"/>
+    <col min="36" max="37" width="12.7109375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="5"/>
+    <col min="39" max="39" width="12.85546875" style="12" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="12"/>
+    <col min="41" max="41" width="14.140625" style="12" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="5"/>
+    <col min="43" max="43" width="13.28515625" style="5" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" style="5" customWidth="1"/>
+    <col min="45" max="45" width="11.85546875" style="9" customWidth="1"/>
+    <col min="46" max="46" width="17.140625" style="9" customWidth="1"/>
+    <col min="47" max="47" width="12.7109375" style="12" customWidth="1"/>
+    <col min="48" max="48" width="15.42578125" style="12" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" style="12" customWidth="1"/>
+    <col min="50" max="52" width="9.140625" style="12"/>
+    <col min="53" max="53" width="13.28515625" style="12" customWidth="1"/>
+    <col min="54" max="54" width="16.5703125" style="12" customWidth="1"/>
+    <col min="55" max="55" width="11.85546875" style="9" customWidth="1"/>
+    <col min="56" max="56" width="17.140625" style="9" customWidth="1"/>
+    <col min="57" max="57" width="12.7109375" style="12" customWidth="1"/>
+    <col min="58" max="58" width="15.42578125" style="12" customWidth="1"/>
+    <col min="59" max="61" width="14.42578125" style="12" customWidth="1"/>
+    <col min="62" max="63" width="8.7109375"/>
+    <col min="64" max="65" width="9.140625" style="1"/>
+    <col min="66" max="66" width="11.85546875" style="9" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:66" s="51" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" s="51" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <v>10</v>
       </c>
@@ -4318,7 +4318,9 @@
       <c r="F2" s="52" t="s">
         <v>615</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="52">
+        <v>9999</v>
+      </c>
       <c r="H2" s="52" t="s">
         <v>8</v>
       </c>
@@ -4435,64 +4437,64 @@
       <selection activeCell="BM1" sqref="BM1:BM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="5"/>
-    <col min="2" max="2" width="38.54296875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="5" customWidth="1"/>
-    <col min="6" max="10" width="9.1796875" style="5"/>
-    <col min="11" max="11" width="8.1796875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="5"/>
-    <col min="13" max="13" width="12.81640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="5"/>
-    <col min="15" max="15" width="20.81640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="5"/>
-    <col min="17" max="17" width="30.453125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="17.1796875" style="12" customWidth="1"/>
-    <col min="21" max="21" width="12.7265625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="14.453125" style="12" customWidth="1"/>
-    <col min="24" max="26" width="23.7265625" style="12" customWidth="1"/>
-    <col min="27" max="27" width="12.81640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="8.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="12.85546875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+    <col min="15" max="15" width="20.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="5"/>
+    <col min="17" max="17" width="30.42578125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" style="12" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="12" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="12" customWidth="1"/>
+    <col min="24" max="26" width="23.7109375" style="12" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" style="12" customWidth="1"/>
     <col min="28" max="28" width="13" style="5" customWidth="1"/>
-    <col min="29" max="29" width="18.26953125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="5" customWidth="1"/>
     <col min="30" max="30" width="12" style="5" customWidth="1"/>
-    <col min="31" max="31" width="14.54296875" style="5" customWidth="1"/>
-    <col min="32" max="32" width="13.26953125" style="5" customWidth="1"/>
-    <col min="33" max="33" width="16.54296875" style="5" customWidth="1"/>
-    <col min="34" max="34" width="11.81640625" style="9" customWidth="1"/>
-    <col min="35" max="36" width="12.7265625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="9.1796875" style="5"/>
-    <col min="38" max="38" width="12.81640625" style="12" customWidth="1"/>
-    <col min="39" max="39" width="9.1796875" style="12"/>
-    <col min="40" max="40" width="14.1796875" style="12" customWidth="1"/>
-    <col min="41" max="41" width="9.1796875" style="5"/>
-    <col min="42" max="42" width="13.26953125" style="5" customWidth="1"/>
-    <col min="43" max="43" width="16.54296875" style="5" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" style="9" customWidth="1"/>
-    <col min="45" max="45" width="17.1796875" style="9" customWidth="1"/>
-    <col min="46" max="46" width="12.7265625" style="12" customWidth="1"/>
-    <col min="47" max="47" width="15.453125" style="12" customWidth="1"/>
-    <col min="48" max="48" width="14.453125" style="12" customWidth="1"/>
-    <col min="49" max="51" width="9.1796875" style="12"/>
-    <col min="52" max="52" width="13.26953125" style="12" customWidth="1"/>
-    <col min="53" max="53" width="16.54296875" style="12" customWidth="1"/>
-    <col min="54" max="54" width="11.81640625" style="9" customWidth="1"/>
-    <col min="55" max="55" width="17.1796875" style="9" customWidth="1"/>
-    <col min="56" max="56" width="12.7265625" style="12" customWidth="1"/>
-    <col min="57" max="57" width="15.453125" style="12" customWidth="1"/>
-    <col min="58" max="60" width="14.453125" style="12" customWidth="1"/>
-    <col min="61" max="64" width="9.1796875" style="1"/>
-    <col min="65" max="65" width="11.81640625" style="9" customWidth="1"/>
-    <col min="66" max="68" width="9.1796875" style="1"/>
-    <col min="69" max="16384" width="9.1796875" style="2"/>
+    <col min="31" max="31" width="14.5703125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="5" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" style="5" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" style="9" customWidth="1"/>
+    <col min="35" max="36" width="12.7109375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="5"/>
+    <col min="38" max="38" width="12.85546875" style="12" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="12"/>
+    <col min="40" max="40" width="14.140625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="5"/>
+    <col min="42" max="42" width="13.28515625" style="5" customWidth="1"/>
+    <col min="43" max="43" width="16.5703125" style="5" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" style="9" customWidth="1"/>
+    <col min="45" max="45" width="17.140625" style="9" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" style="12" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" style="12" customWidth="1"/>
+    <col min="48" max="48" width="14.42578125" style="12" customWidth="1"/>
+    <col min="49" max="51" width="9.140625" style="12"/>
+    <col min="52" max="52" width="13.28515625" style="12" customWidth="1"/>
+    <col min="53" max="53" width="16.5703125" style="12" customWidth="1"/>
+    <col min="54" max="54" width="11.85546875" style="9" customWidth="1"/>
+    <col min="55" max="55" width="17.140625" style="9" customWidth="1"/>
+    <col min="56" max="56" width="12.7109375" style="12" customWidth="1"/>
+    <col min="57" max="57" width="15.42578125" style="12" customWidth="1"/>
+    <col min="58" max="60" width="14.42578125" style="12" customWidth="1"/>
+    <col min="61" max="64" width="9.140625" style="1"/>
+    <col min="65" max="65" width="11.85546875" style="9" customWidth="1"/>
+    <col min="66" max="68" width="9.140625" style="1"/>
+    <col min="69" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4692,7 +4694,7 @@
       <c r="BO1" s="2"/>
       <c r="BP1" s="2"/>
     </row>
-    <row r="2" spans="1:68" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4828,7 +4830,7 @@
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
     </row>
-    <row r="3" spans="1:68" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4980,52 +4982,52 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="5"/>
-    <col min="9" max="9" width="12.81640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="12.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="15" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="2"/>
-    <col min="18" max="18" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.1796875" style="2"/>
-    <col min="23" max="23" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="9.1796875" style="2"/>
-    <col min="28" max="28" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2"/>
+    <col min="18" max="18" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" style="9" customWidth="1"/>
-    <col min="30" max="30" width="9.1796875" style="9"/>
-    <col min="31" max="31" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.1796875" style="2" customWidth="1"/>
-    <col min="33" max="40" width="9.1796875" style="2"/>
-    <col min="41" max="41" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="53" width="9.1796875" style="2"/>
-    <col min="54" max="54" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.1796875" style="2"/>
-    <col min="56" max="57" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.1796875" style="2" customWidth="1"/>
-    <col min="59" max="59" width="13.81640625" style="2" customWidth="1"/>
-    <col min="60" max="63" width="9.1796875" style="2"/>
-    <col min="64" max="64" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.1796875" style="51"/>
-    <col min="67" max="67" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="40.54296875" style="51" customWidth="1"/>
-    <col min="69" max="16384" width="9.1796875" style="2"/>
+    <col min="30" max="30" width="9.140625" style="9"/>
+    <col min="31" max="31" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" style="2" customWidth="1"/>
+    <col min="33" max="40" width="9.140625" style="2"/>
+    <col min="41" max="41" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="53" width="9.140625" style="2"/>
+    <col min="54" max="54" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" style="2"/>
+    <col min="56" max="57" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.140625" style="2" customWidth="1"/>
+    <col min="59" max="59" width="13.85546875" style="2" customWidth="1"/>
+    <col min="60" max="63" width="9.140625" style="2"/>
+    <col min="64" max="64" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.140625" style="51"/>
+    <col min="67" max="67" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="40.5703125" style="51" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <v>1</v>
       </c>
@@ -5361,7 +5363,7 @@
       <c r="BO2" s="54"/>
       <c r="BP2" s="14"/>
     </row>
-    <row r="3" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -5489,7 +5491,7 @@
       <c r="BO3" s="54"/>
       <c r="BP3" s="14"/>
     </row>
-    <row r="4" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -5621,7 +5623,7 @@
       <c r="BO4" s="52"/>
       <c r="BP4" s="14"/>
     </row>
-    <row r="5" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:70" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>4</v>
       </c>
@@ -5751,7 +5753,7 @@
       <c r="BO5" s="52"/>
       <c r="BP5" s="14"/>
     </row>
-    <row r="6" spans="1:70" s="50" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:70" s="50" customFormat="1" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
         <v>5</v>
       </c>
@@ -5891,7 +5893,7 @@
       <c r="BQ6" s="51"/>
       <c r="BR6" s="51"/>
     </row>
-    <row r="7" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>6</v>
       </c>
@@ -6031,7 +6033,7 @@
       <c r="BQ7" s="51"/>
       <c r="BR7" s="51"/>
     </row>
-    <row r="8" spans="1:70" s="50" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:70" s="50" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>7</v>
       </c>
@@ -6173,7 +6175,7 @@
       <c r="BQ8" s="51"/>
       <c r="BR8" s="51"/>
     </row>
-    <row r="9" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52">
         <v>8</v>
       </c>
@@ -6319,7 +6321,7 @@
       <c r="BQ9" s="51"/>
       <c r="BR9" s="51"/>
     </row>
-    <row r="10" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -6449,7 +6451,7 @@
       <c r="BQ10" s="51"/>
       <c r="BR10" s="51"/>
     </row>
-    <row r="11" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>10</v>
       </c>
@@ -6581,7 +6583,7 @@
       <c r="BQ11" s="51"/>
       <c r="BR11" s="51"/>
     </row>
-    <row r="12" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>11</v>
       </c>
@@ -6713,7 +6715,7 @@
       <c r="BQ12" s="51"/>
       <c r="BR12" s="51"/>
     </row>
-    <row r="13" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52">
         <v>12</v>
       </c>
@@ -6843,7 +6845,7 @@
       <c r="BQ13" s="51"/>
       <c r="BR13" s="51"/>
     </row>
-    <row r="14" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52">
         <v>13</v>
       </c>
@@ -6975,7 +6977,7 @@
       <c r="BQ14" s="51"/>
       <c r="BR14" s="51"/>
     </row>
-    <row r="15" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:70" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52">
         <v>14</v>
       </c>
@@ -7107,7 +7109,7 @@
       <c r="BQ15" s="51"/>
       <c r="BR15" s="51"/>
     </row>
-    <row r="16" spans="1:70" s="50" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:70" s="50" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52">
         <v>15</v>
       </c>
@@ -7231,7 +7233,7 @@
       <c r="BQ16" s="51"/>
       <c r="BR16" s="51"/>
     </row>
-    <row r="17" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="52">
         <v>16</v>
       </c>
@@ -7355,7 +7357,7 @@
       <c r="BQ17" s="51"/>
       <c r="BR17" s="51"/>
     </row>
-    <row r="18" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52">
         <v>17</v>
       </c>
@@ -7479,7 +7481,7 @@
       <c r="BQ18" s="51"/>
       <c r="BR18" s="51"/>
     </row>
-    <row r="19" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52">
         <v>18</v>
       </c>
@@ -7601,7 +7603,7 @@
       <c r="BQ19" s="51"/>
       <c r="BR19" s="51"/>
     </row>
-    <row r="20" spans="1:71" s="29" customFormat="1" ht="37" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:71" s="29" customFormat="1" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>19</v>
       </c>
@@ -7739,7 +7741,7 @@
       <c r="BQ20" s="30"/>
       <c r="BR20" s="30"/>
     </row>
-    <row r="21" spans="1:71" s="29" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:71" s="29" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>20</v>
       </c>
@@ -7877,7 +7879,7 @@
       <c r="BQ21" s="30"/>
       <c r="BR21" s="30"/>
     </row>
-    <row r="22" spans="1:71" s="50" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:71" s="50" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>21</v>
       </c>
@@ -8015,7 +8017,7 @@
       <c r="BQ22" s="51"/>
       <c r="BR22" s="51"/>
     </row>
-    <row r="23" spans="1:71" s="51" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:71" s="51" customFormat="1" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>22</v>
       </c>
@@ -8143,7 +8145,7 @@
       <c r="BO23" s="54"/>
       <c r="BP23" s="14"/>
     </row>
-    <row r="24" spans="1:71" s="51" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:71" s="51" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>23</v>
       </c>
@@ -8271,7 +8273,7 @@
       <c r="BO24" s="54"/>
       <c r="BP24" s="14"/>
     </row>
-    <row r="25" spans="1:71" s="51" customFormat="1" ht="85" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:71" s="51" customFormat="1" ht="109.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="52">
         <v>24</v>
       </c>
@@ -8396,7 +8398,7 @@
       <c r="BR25" s="50"/>
       <c r="BS25" s="50"/>
     </row>
-    <row r="26" spans="1:71" s="51" customFormat="1" ht="97" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:71" s="51" customFormat="1" ht="121.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52">
         <v>25</v>
       </c>
@@ -8521,7 +8523,7 @@
       <c r="BR26" s="50"/>
       <c r="BS26" s="50"/>
     </row>
-    <row r="27" spans="1:71" s="51" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:71" s="51" customFormat="1" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52">
         <v>26</v>
       </c>
@@ -8648,7 +8650,7 @@
       <c r="BR27" s="50"/>
       <c r="BS27" s="50"/>
     </row>
-    <row r="28" spans="1:71" s="51" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:71" s="51" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
         <v>27</v>
       </c>
@@ -8770,7 +8772,7 @@
       <c r="BO28" s="52"/>
       <c r="BP28" s="14"/>
     </row>
-    <row r="29" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
         <v>28</v>
       </c>
@@ -8902,7 +8904,7 @@
       <c r="BO29" s="54"/>
       <c r="BP29" s="14"/>
     </row>
-    <row r="30" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
         <v>29</v>
       </c>
@@ -9032,7 +9034,7 @@
       <c r="BO30" s="54"/>
       <c r="BP30" s="14"/>
     </row>
-    <row r="31" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52">
         <v>30</v>
       </c>
@@ -9166,7 +9168,7 @@
       <c r="BO31" s="52"/>
       <c r="BP31" s="14"/>
     </row>
-    <row r="32" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:71" s="51" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
         <v>31</v>
       </c>
@@ -9298,7 +9300,7 @@
       <c r="BO32" s="52"/>
       <c r="BP32" s="14"/>
     </row>
-    <row r="33" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:71" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52">
         <v>32</v>
       </c>
@@ -9446,7 +9448,7 @@
       <c r="BQ33" s="51"/>
       <c r="BR33" s="51"/>
     </row>
-    <row r="34" spans="1:71" s="50" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:71" s="50" customFormat="1" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="52">
         <v>33</v>
       </c>
@@ -9572,7 +9574,7 @@
       <c r="BQ34" s="51"/>
       <c r="BR34" s="51"/>
     </row>
-    <row r="35" spans="1:71" s="51" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:71" s="51" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="52">
         <v>34</v>
       </c>
@@ -9701,7 +9703,7 @@
       <c r="BR35" s="50"/>
       <c r="BS35" s="50"/>
     </row>
-    <row r="36" spans="1:71" s="50" customFormat="1" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:71" s="50" customFormat="1" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52">
         <v>35</v>
       </c>
@@ -9845,7 +9847,7 @@
       <c r="BQ36" s="51"/>
       <c r="BR36" s="51"/>
     </row>
-    <row r="37" spans="1:71" s="50" customFormat="1" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:71" s="50" customFormat="1" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="52">
         <v>36</v>
       </c>
@@ -9989,7 +9991,7 @@
       <c r="BQ37" s="51"/>
       <c r="BR37" s="51"/>
     </row>
-    <row r="38" spans="1:71" s="50" customFormat="1" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:71" s="50" customFormat="1" ht="92.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="52">
         <v>37</v>
       </c>
@@ -10133,7 +10135,7 @@
       <c r="BQ38" s="51"/>
       <c r="BR38" s="51"/>
     </row>
-    <row r="39" spans="1:71" s="50" customFormat="1" ht="107" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:71" s="50" customFormat="1" ht="107.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="52">
         <v>38</v>
       </c>
@@ -10277,7 +10279,7 @@
       <c r="BQ39" s="51"/>
       <c r="BR39" s="51"/>
     </row>
-    <row r="40" spans="1:71" s="50" customFormat="1" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:71" s="50" customFormat="1" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="52">
         <v>39</v>
       </c>
@@ -10421,7 +10423,7 @@
       <c r="BQ40" s="51"/>
       <c r="BR40" s="51"/>
     </row>
-    <row r="41" spans="1:71" s="50" customFormat="1" ht="110.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:71" s="50" customFormat="1" ht="110.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="52">
         <v>40</v>
       </c>
@@ -10569,7 +10571,7 @@
       <c r="BQ41" s="51"/>
       <c r="BR41" s="51"/>
     </row>
-    <row r="42" spans="1:71" s="50" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:71" s="50" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="52">
         <v>41</v>
       </c>
@@ -10717,7 +10719,7 @@
       <c r="BQ42" s="51"/>
       <c r="BR42" s="51"/>
     </row>
-    <row r="43" spans="1:71" s="50" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:71" s="50" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -10865,7 +10867,7 @@
       <c r="BQ43" s="51"/>
       <c r="BR43" s="51"/>
     </row>
-    <row r="44" spans="1:71" s="51" customFormat="1" ht="72.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:71" s="51" customFormat="1" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -11009,65 +11011,65 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="5"/>
-    <col min="2" max="2" width="38.54296875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="5" customWidth="1"/>
-    <col min="7" max="11" width="9.1796875" style="5"/>
-    <col min="12" max="12" width="8.1796875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="5"/>
-    <col min="14" max="14" width="12.81640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="5"/>
-    <col min="16" max="16" width="20.81640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="5"/>
-    <col min="18" max="18" width="30.453125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" style="5" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" style="12" customWidth="1"/>
-    <col min="21" max="21" width="17.1796875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" style="12" customWidth="1"/>
-    <col min="25" max="27" width="23.7265625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="12.81640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="8.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="12.85546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="20.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="5"/>
+    <col min="18" max="18" width="30.42578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="12" customWidth="1"/>
+    <col min="25" max="27" width="23.7109375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="12" customWidth="1"/>
     <col min="29" max="29" width="13" style="5" customWidth="1"/>
-    <col min="30" max="30" width="18.26953125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" style="5" customWidth="1"/>
     <col min="31" max="31" width="12" style="5" customWidth="1"/>
-    <col min="32" max="32" width="14.54296875" style="5" customWidth="1"/>
-    <col min="33" max="33" width="13.26953125" style="5" customWidth="1"/>
-    <col min="34" max="34" width="16.54296875" style="5" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="9" customWidth="1"/>
-    <col min="36" max="37" width="12.7265625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="9.1796875" style="5"/>
-    <col min="39" max="39" width="12.81640625" style="12" customWidth="1"/>
-    <col min="40" max="40" width="9.1796875" style="12"/>
-    <col min="41" max="41" width="14.1796875" style="12" customWidth="1"/>
-    <col min="42" max="42" width="9.1796875" style="5"/>
-    <col min="43" max="43" width="13.26953125" style="5" customWidth="1"/>
-    <col min="44" max="44" width="16.54296875" style="5" customWidth="1"/>
-    <col min="45" max="45" width="11.81640625" style="9" customWidth="1"/>
-    <col min="46" max="46" width="17.1796875" style="9" customWidth="1"/>
-    <col min="47" max="47" width="12.7265625" style="12" customWidth="1"/>
-    <col min="48" max="48" width="15.453125" style="12" customWidth="1"/>
-    <col min="49" max="49" width="14.453125" style="12" customWidth="1"/>
-    <col min="50" max="52" width="9.1796875" style="12"/>
-    <col min="53" max="53" width="13.26953125" style="12" customWidth="1"/>
-    <col min="54" max="54" width="16.54296875" style="12" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" style="9" customWidth="1"/>
-    <col min="56" max="56" width="17.1796875" style="9" customWidth="1"/>
-    <col min="57" max="57" width="12.7265625" style="12" customWidth="1"/>
-    <col min="58" max="58" width="15.453125" style="12" customWidth="1"/>
-    <col min="59" max="61" width="14.453125" style="12" customWidth="1"/>
-    <col min="62" max="65" width="9.1796875" style="1"/>
-    <col min="66" max="66" width="11.81640625" style="9" customWidth="1"/>
-    <col min="67" max="69" width="9.1796875" style="1"/>
-    <col min="70" max="16384" width="9.1796875" style="2"/>
+    <col min="32" max="32" width="14.5703125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" style="5" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" style="5" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" style="9" customWidth="1"/>
+    <col min="36" max="37" width="12.7109375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="5"/>
+    <col min="39" max="39" width="12.85546875" style="12" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="12"/>
+    <col min="41" max="41" width="14.140625" style="12" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="5"/>
+    <col min="43" max="43" width="13.28515625" style="5" customWidth="1"/>
+    <col min="44" max="44" width="16.5703125" style="5" customWidth="1"/>
+    <col min="45" max="45" width="11.85546875" style="9" customWidth="1"/>
+    <col min="46" max="46" width="17.140625" style="9" customWidth="1"/>
+    <col min="47" max="47" width="12.7109375" style="12" customWidth="1"/>
+    <col min="48" max="48" width="15.42578125" style="12" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" style="12" customWidth="1"/>
+    <col min="50" max="52" width="9.140625" style="12"/>
+    <col min="53" max="53" width="13.28515625" style="12" customWidth="1"/>
+    <col min="54" max="54" width="16.5703125" style="12" customWidth="1"/>
+    <col min="55" max="55" width="11.85546875" style="9" customWidth="1"/>
+    <col min="56" max="56" width="17.140625" style="9" customWidth="1"/>
+    <col min="57" max="57" width="12.7109375" style="12" customWidth="1"/>
+    <col min="58" max="58" width="15.42578125" style="12" customWidth="1"/>
+    <col min="59" max="61" width="14.42578125" style="12" customWidth="1"/>
+    <col min="62" max="65" width="9.140625" style="1"/>
+    <col min="66" max="66" width="11.85546875" style="9" customWidth="1"/>
+    <col min="67" max="69" width="9.140625" style="1"/>
+    <col min="70" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="51" customFormat="1" ht="60.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" s="51" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11267,7 +11269,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <v>1</v>
       </c>
@@ -11401,7 +11403,7 @@
       </c>
       <c r="BN2" s="14"/>
     </row>
-    <row r="3" spans="1:69" s="51" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" s="51" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -11537,7 +11539,7 @@
       </c>
       <c r="BN3" s="14"/>
     </row>
-    <row r="4" spans="1:69" s="51" customFormat="1" ht="156.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" s="51" customFormat="1" ht="168.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -11675,7 +11677,7 @@
       </c>
       <c r="BN4" s="14"/>
     </row>
-    <row r="5" spans="1:69" s="51" customFormat="1" ht="72.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" s="51" customFormat="1" ht="84.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>4</v>
       </c>
@@ -11813,7 +11815,7 @@
       </c>
       <c r="BN5" s="14"/>
     </row>
-    <row r="6" spans="1:69" s="51" customFormat="1" ht="72.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" s="51" customFormat="1" ht="84.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <v>5</v>
       </c>
@@ -11951,7 +11953,7 @@
       </c>
       <c r="BN6" s="58"/>
     </row>
-    <row r="7" spans="1:69" s="51" customFormat="1" ht="85" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:69" s="51" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>6</v>
       </c>
@@ -12092,7 +12094,7 @@
       <c r="BP7" s="50"/>
       <c r="BQ7" s="50"/>
     </row>
-    <row r="8" spans="1:69" s="51" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:69" s="51" customFormat="1" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>7</v>
       </c>
@@ -12233,7 +12235,7 @@
       <c r="BP8" s="50"/>
       <c r="BQ8" s="50"/>
     </row>
-    <row r="9" spans="1:69" s="51" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:69" s="51" customFormat="1" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52">
         <v>8</v>
       </c>
@@ -12374,7 +12376,7 @@
       <c r="BP9" s="50"/>
       <c r="BQ9" s="50"/>
     </row>
-    <row r="10" spans="1:69" s="51" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:69" s="51" customFormat="1" ht="73.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -12513,7 +12515,7 @@
       <c r="BP10" s="50"/>
       <c r="BQ10" s="50"/>
     </row>
-    <row r="11" spans="1:69" s="51" customFormat="1" ht="37" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:69" s="51" customFormat="1" ht="49.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>10</v>
       </c>
@@ -12644,7 +12646,7 @@
       <c r="BP11" s="50"/>
       <c r="BQ11" s="50"/>
     </row>
-    <row r="12" spans="1:69" s="51" customFormat="1" ht="200.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:69" s="51" customFormat="1" ht="200.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>11</v>
       </c>
@@ -12777,7 +12779,7 @@
       <c r="BP12" s="50"/>
       <c r="BQ12" s="50"/>
     </row>
-    <row r="13" spans="1:69" s="51" customFormat="1" ht="24.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" s="51" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>12</v>
       </c>
@@ -12915,7 +12917,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="14" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>1</v>
       </c>
@@ -13067,41 +13069,41 @@
       <selection pane="bottomLeft" activeCell="AM64" sqref="AM64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="6" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="27" width="9.1796875" style="2"/>
-    <col min="28" max="28" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.1796875" style="2"/>
-    <col min="31" max="31" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="9.1796875" style="2"/>
-    <col min="38" max="38" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="9.1796875" style="2"/>
-    <col min="41" max="41" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="57" width="9.1796875" style="2"/>
-    <col min="58" max="58" width="19.453125" style="2" customWidth="1"/>
-    <col min="59" max="59" width="24.26953125" style="2" customWidth="1"/>
-    <col min="60" max="60" width="9.1796875" style="2"/>
-    <col min="61" max="62" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.1796875" style="2"/>
-    <col min="64" max="64" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.1796875" style="2"/>
+    <col min="13" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="9.140625" style="2"/>
+    <col min="31" max="31" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="37" width="9.140625" style="2"/>
+    <col min="38" max="38" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.140625" style="2"/>
+    <col min="41" max="41" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="57" width="9.140625" style="2"/>
+    <col min="58" max="58" width="19.42578125" style="2" customWidth="1"/>
+    <col min="59" max="59" width="24.28515625" style="2" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" style="2"/>
+    <col min="61" max="62" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" style="2"/>
+    <col min="64" max="64" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.140625" style="2"/>
     <col min="66" max="66" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.81640625" style="2" customWidth="1"/>
-    <col min="68" max="68" width="9.1796875" style="51"/>
-    <col min="69" max="69" width="34.1796875" style="51" customWidth="1"/>
-    <col min="70" max="16384" width="9.1796875" style="2"/>
+    <col min="67" max="67" width="10.85546875" style="2" customWidth="1"/>
+    <col min="68" max="68" width="9.140625" style="51"/>
+    <col min="69" max="69" width="34.140625" style="51" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13310,7 +13312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <v>41</v>
       </c>
@@ -13447,7 +13449,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -13580,7 +13582,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -13715,7 +13717,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -13848,7 +13850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -13983,7 +13985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -14120,7 +14122,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -14255,7 +14257,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -14390,7 +14392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -14523,7 +14525,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -14658,7 +14660,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -14791,7 +14793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -14926,7 +14928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -15059,7 +15061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -15194,7 +15196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -15327,7 +15329,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -15462,7 +15464,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -15595,7 +15597,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -15730,7 +15732,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -15865,7 +15867,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -15998,7 +16000,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:69" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:69" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -16133,7 +16135,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>21</v>
       </c>
@@ -16268,7 +16270,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="24" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>22</v>
       </c>
@@ -16401,7 +16403,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:69" s="51" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
         <v>23</v>
       </c>
@@ -16536,7 +16538,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="26" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>24</v>
       </c>
@@ -16669,7 +16671,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52">
         <v>25</v>
       </c>
@@ -16804,7 +16806,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
         <v>26</v>
       </c>
@@ -16937,7 +16939,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
         <v>27</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
         <v>28</v>
       </c>
@@ -17209,7 +17211,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>29</v>
       </c>
@@ -17346,7 +17348,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="32" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>30</v>
       </c>
@@ -17481,7 +17483,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>31</v>
       </c>
@@ -17618,7 +17620,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
         <v>32</v>
       </c>
@@ -17755,7 +17757,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52">
         <v>33</v>
       </c>
@@ -17890,7 +17892,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52">
         <v>34</v>
       </c>
@@ -18025,7 +18027,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52">
         <v>35</v>
       </c>
@@ -18158,7 +18160,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52">
         <v>36</v>
       </c>
@@ -18293,7 +18295,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52">
         <v>37</v>
       </c>
@@ -18432,7 +18434,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>38</v>
       </c>
@@ -18571,7 +18573,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>39</v>
       </c>
@@ -18710,7 +18712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>40</v>
       </c>
@@ -18849,7 +18851,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>41</v>
       </c>
@@ -18986,7 +18988,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>42</v>
       </c>
@@ -19123,7 +19125,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>43</v>
       </c>
@@ -19260,7 +19262,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>44</v>
       </c>
@@ -19397,7 +19399,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>45</v>
       </c>
@@ -19536,7 +19538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:69" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:69" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>46</v>
       </c>
@@ -19673,7 +19675,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>47</v>
       </c>
@@ -19810,7 +19812,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="52">
         <v>48</v>
       </c>
@@ -19947,7 +19949,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="52">
         <v>49</v>
       </c>
@@ -20082,7 +20084,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:70" s="51" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="52">
         <v>50</v>
       </c>
@@ -20225,7 +20227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="52">
         <v>51</v>
       </c>
@@ -20362,7 +20364,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52">
         <v>52</v>
       </c>
@@ -20501,7 +20503,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="52">
         <v>53</v>
       </c>
@@ -20642,7 +20644,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="52">
         <v>54</v>
       </c>
@@ -20783,7 +20785,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>55</v>
       </c>
@@ -20926,7 +20928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="52">
         <v>57</v>
       </c>
@@ -21069,7 +21071,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="52">
         <v>58</v>
       </c>
@@ -21210,7 +21212,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52">
         <v>59</v>
       </c>
@@ -21353,7 +21355,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="61" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="52">
         <v>60</v>
       </c>
@@ -21496,7 +21498,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:70" s="51" customFormat="1" ht="192.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:70" s="51" customFormat="1" ht="204.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="52">
         <v>61</v>
       </c>
@@ -21641,7 +21643,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="63" spans="1:70" s="51" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:70" s="51" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="52">
         <v>62</v>
       </c>
@@ -21778,7 +21780,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:70" s="50" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:70" s="50" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="52">
         <v>63</v>
       </c>
@@ -21940,52 +21942,52 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="5"/>
-    <col min="9" max="9" width="12.81640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="51"/>
+    <col min="1" max="1" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="12.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="51"/>
     <col min="12" max="12" width="15" style="51" customWidth="1"/>
-    <col min="13" max="13" width="19.7265625" style="51" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" style="51" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" style="51" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" style="51" customWidth="1"/>
-    <col min="17" max="17" width="9.1796875" style="51"/>
-    <col min="18" max="18" width="24.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="9.1796875" style="51"/>
-    <col min="23" max="23" width="9.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="9.1796875" style="51"/>
-    <col min="28" max="28" width="9.26953125" style="51" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" style="51" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="51" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="51" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="51" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="51"/>
+    <col min="18" max="18" width="24.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.140625" style="51"/>
+    <col min="23" max="23" width="9.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="9.140625" style="51"/>
+    <col min="28" max="28" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" style="9" customWidth="1"/>
-    <col min="30" max="30" width="9.1796875" style="9"/>
-    <col min="31" max="31" width="9.26953125" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.1796875" style="51" customWidth="1"/>
-    <col min="33" max="40" width="9.1796875" style="51"/>
-    <col min="41" max="41" width="9.54296875" style="51" bestFit="1" customWidth="1"/>
-    <col min="42" max="53" width="9.1796875" style="51"/>
-    <col min="54" max="54" width="9.26953125" style="51" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.1796875" style="51"/>
-    <col min="56" max="57" width="9.26953125" style="51" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.1796875" style="51" customWidth="1"/>
-    <col min="59" max="59" width="13.81640625" style="51" customWidth="1"/>
-    <col min="60" max="63" width="9.1796875" style="51"/>
-    <col min="64" max="64" width="9.26953125" style="51" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.1796875" style="51"/>
-    <col min="67" max="67" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="40.54296875" style="51" customWidth="1"/>
-    <col min="69" max="16384" width="9.1796875" style="51"/>
+    <col min="30" max="30" width="9.140625" style="9"/>
+    <col min="31" max="31" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" style="51" customWidth="1"/>
+    <col min="33" max="40" width="9.140625" style="51"/>
+    <col min="41" max="41" width="9.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="42" max="53" width="9.140625" style="51"/>
+    <col min="54" max="54" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" style="51"/>
+    <col min="56" max="57" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.140625" style="51" customWidth="1"/>
+    <col min="59" max="59" width="13.85546875" style="51" customWidth="1"/>
+    <col min="60" max="63" width="9.140625" style="51"/>
+    <col min="64" max="64" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.140625" style="51"/>
+    <col min="67" max="67" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="40.5703125" style="51" customWidth="1"/>
+    <col min="69" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -22191,7 +22193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52">
         <v>1</v>
       </c>
@@ -22321,7 +22323,7 @@
       <c r="BO2" s="54"/>
       <c r="BP2" s="14"/>
     </row>
-    <row r="3" spans="1:68" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:68" s="50" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52">
         <v>2</v>
       </c>
@@ -22465,7 +22467,7 @@
       <c r="BO3" s="52"/>
       <c r="BP3" s="14"/>
     </row>
-    <row r="4" spans="1:68" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" ht="84.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>3</v>
       </c>
@@ -22595,7 +22597,7 @@
       <c r="BO4" s="54"/>
       <c r="BP4" s="17"/>
     </row>
-    <row r="5" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>4</v>
       </c>
@@ -22725,7 +22727,7 @@
       <c r="BO5" s="54"/>
       <c r="BP5" s="17"/>
     </row>
-    <row r="6" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>5</v>
       </c>
@@ -22855,7 +22857,7 @@
       <c r="BO6" s="54"/>
       <c r="BP6" s="17"/>
     </row>
-    <row r="7" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>6</v>
       </c>
@@ -22985,7 +22987,7 @@
       <c r="BO7" s="54"/>
       <c r="BP7" s="17"/>
     </row>
-    <row r="8" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>7</v>
       </c>
@@ -23115,7 +23117,7 @@
       <c r="BO8" s="54"/>
       <c r="BP8" s="17"/>
     </row>
-    <row r="9" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>8</v>
       </c>
@@ -23245,7 +23247,7 @@
       <c r="BO9" s="54"/>
       <c r="BP9" s="17"/>
     </row>
-    <row r="10" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>9</v>
       </c>
@@ -23375,7 +23377,7 @@
       <c r="BO10" s="54"/>
       <c r="BP10" s="17"/>
     </row>
-    <row r="11" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>10</v>
       </c>
@@ -23505,7 +23507,7 @@
       <c r="BO11" s="54"/>
       <c r="BP11" s="17"/>
     </row>
-    <row r="12" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>11</v>
       </c>
@@ -23635,7 +23637,7 @@
       <c r="BO12" s="54"/>
       <c r="BP12" s="17"/>
     </row>
-    <row r="13" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52">
         <v>12</v>
       </c>
@@ -23765,7 +23767,7 @@
       <c r="BO13" s="54"/>
       <c r="BP13" s="17"/>
     </row>
-    <row r="14" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52">
         <v>13</v>
       </c>
@@ -23895,7 +23897,7 @@
       <c r="BO14" s="54"/>
       <c r="BP14" s="17"/>
     </row>
-    <row r="15" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52">
         <v>14</v>
       </c>
@@ -24025,7 +24027,7 @@
       <c r="BO15" s="54"/>
       <c r="BP15" s="17"/>
     </row>
-    <row r="16" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52">
         <v>15</v>
       </c>
@@ -24155,7 +24157,7 @@
       <c r="BO16" s="54"/>
       <c r="BP16" s="17"/>
     </row>
-    <row r="17" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52">
         <v>16</v>
       </c>
@@ -24285,7 +24287,7 @@
       <c r="BO17" s="54"/>
       <c r="BP17" s="17"/>
     </row>
-    <row r="18" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52">
         <v>17</v>
       </c>
@@ -24415,7 +24417,7 @@
       <c r="BO18" s="54"/>
       <c r="BP18" s="17"/>
     </row>
-    <row r="19" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52">
         <v>18</v>
       </c>
@@ -24545,7 +24547,7 @@
       <c r="BO19" s="54"/>
       <c r="BP19" s="17"/>
     </row>
-    <row r="20" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52">
         <v>19</v>
       </c>
@@ -24675,7 +24677,7 @@
       <c r="BO20" s="54"/>
       <c r="BP20" s="17"/>
     </row>
-    <row r="21" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52">
         <v>20</v>
       </c>
@@ -24805,7 +24807,7 @@
       <c r="BO21" s="54"/>
       <c r="BP21" s="17"/>
     </row>
-    <row r="22" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
         <v>21</v>
       </c>
@@ -24935,7 +24937,7 @@
       <c r="BO22" s="54"/>
       <c r="BP22" s="17"/>
     </row>
-    <row r="23" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52">
         <v>22</v>
       </c>
@@ -25065,7 +25067,7 @@
       <c r="BO23" s="54"/>
       <c r="BP23" s="17"/>
     </row>
-    <row r="24" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52">
         <v>23</v>
       </c>
@@ -25195,7 +25197,7 @@
       <c r="BO24" s="54"/>
       <c r="BP24" s="17"/>
     </row>
-    <row r="25" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52">
         <v>24</v>
       </c>
@@ -25325,7 +25327,7 @@
       <c r="BO25" s="54"/>
       <c r="BP25" s="17"/>
     </row>
-    <row r="26" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52">
         <v>25</v>
       </c>
@@ -25455,7 +25457,7 @@
       <c r="BO26" s="54"/>
       <c r="BP26" s="17"/>
     </row>
-    <row r="27" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:68" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52">
         <v>26</v>
       </c>
@@ -25585,7 +25587,7 @@
       <c r="BO27" s="54"/>
       <c r="BP27" s="17"/>
     </row>
-    <row r="28" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52">
         <v>27</v>
       </c>
@@ -25715,7 +25717,7 @@
       <c r="BO28" s="54"/>
       <c r="BP28" s="17"/>
     </row>
-    <row r="29" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52">
         <v>28</v>
       </c>
@@ -25845,7 +25847,7 @@
       <c r="BO29" s="54"/>
       <c r="BP29" s="17"/>
     </row>
-    <row r="30" spans="1:68" ht="120.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:68" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52">
         <v>29</v>
       </c>
@@ -25975,7 +25977,7 @@
       <c r="BO30" s="54"/>
       <c r="BP30" s="17"/>
     </row>
-    <row r="31" spans="1:68" ht="120.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:68" ht="144.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52">
         <v>30</v>
       </c>
@@ -26105,7 +26107,7 @@
       <c r="BO31" s="54"/>
       <c r="BP31" s="17"/>
     </row>
-    <row r="32" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52">
         <v>31</v>
       </c>
@@ -26235,7 +26237,7 @@
       <c r="BO32" s="54"/>
       <c r="BP32" s="17"/>
     </row>
-    <row r="33" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52">
         <v>32</v>
       </c>
@@ -26365,7 +26367,7 @@
       <c r="BO33" s="54"/>
       <c r="BP33" s="17"/>
     </row>
-    <row r="34" spans="1:68" ht="60.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52">
         <v>33</v>
       </c>
@@ -26495,7 +26497,7 @@
       <c r="BO34" s="54"/>
       <c r="BP34" s="17"/>
     </row>
-    <row r="35" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52">
         <v>34</v>
       </c>
@@ -26625,7 +26627,7 @@
       <c r="BO35" s="54"/>
       <c r="BP35" s="17"/>
     </row>
-    <row r="36" spans="1:68" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52">
         <v>35</v>
       </c>
@@ -26755,7 +26757,7 @@
       <c r="BO36" s="54"/>
       <c r="BP36" s="17"/>
     </row>
-    <row r="37" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52">
         <v>36</v>
       </c>
@@ -26885,7 +26887,7 @@
       <c r="BO37" s="54"/>
       <c r="BP37" s="17"/>
     </row>
-    <row r="38" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52">
         <v>37</v>
       </c>
@@ -27015,7 +27017,7 @@
       <c r="BO38" s="54"/>
       <c r="BP38" s="17"/>
     </row>
-    <row r="39" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52">
         <v>38</v>
       </c>
@@ -27145,7 +27147,7 @@
       <c r="BO39" s="54"/>
       <c r="BP39" s="17"/>
     </row>
-    <row r="40" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>39</v>
       </c>
@@ -27275,7 +27277,7 @@
       <c r="BO40" s="54"/>
       <c r="BP40" s="17"/>
     </row>
-    <row r="41" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>40</v>
       </c>
@@ -27405,7 +27407,7 @@
       <c r="BO41" s="54"/>
       <c r="BP41" s="17"/>
     </row>
-    <row r="42" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>41</v>
       </c>
@@ -27535,7 +27537,7 @@
       <c r="BO42" s="54"/>
       <c r="BP42" s="17"/>
     </row>
-    <row r="43" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -27665,7 +27667,7 @@
       <c r="BO43" s="54"/>
       <c r="BP43" s="17"/>
     </row>
-    <row r="44" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -27795,7 +27797,7 @@
       <c r="BO44" s="54"/>
       <c r="BP44" s="17"/>
     </row>
-    <row r="45" spans="1:68" ht="39.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:68" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>44</v>
       </c>
@@ -27925,7 +27927,7 @@
       <c r="BO45" s="54"/>
       <c r="BP45" s="17"/>
     </row>
-    <row r="46" spans="1:68" ht="84" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:68" ht="84" x14ac:dyDescent="0.2">
       <c r="A46" s="56">
         <v>45</v>
       </c>
@@ -28055,7 +28057,7 @@
       <c r="BO46" s="57"/>
       <c r="BP46" s="87"/>
     </row>
-    <row r="47" spans="1:68" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:68" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="52">
         <v>46</v>
       </c>
@@ -28201,15 +28203,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
-    <col min="18" max="18" width="32.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="2" customFormat="1" ht="48.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" s="2" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -28415,7 +28417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="2" customFormat="1" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" s="2" customFormat="1" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>25</v>
       </c>
@@ -28561,15 +28563,15 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="68"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="105.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="68"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="105.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -28583,7 +28585,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="59">
         <v>1</v>
       </c>
@@ -28597,163 +28599,163 @@
         <v>516</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="55"/>
       <c r="C3" s="59"/>
       <c r="D3" s="55"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="55"/>
       <c r="C4" s="59"/>
       <c r="D4" s="55"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="55"/>
       <c r="C5" s="59"/>
       <c r="D5" s="55"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="55"/>
       <c r="C6" s="59"/>
       <c r="D6" s="55"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
       <c r="B7" s="55"/>
       <c r="C7" s="59"/>
       <c r="D7" s="55"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="59"/>
       <c r="B8" s="55"/>
       <c r="C8" s="59"/>
       <c r="D8" s="55"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="59"/>
       <c r="B9" s="55"/>
       <c r="C9" s="59"/>
       <c r="D9" s="55"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="59"/>
       <c r="B10" s="55"/>
       <c r="C10" s="59"/>
       <c r="D10" s="55"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
       <c r="B11" s="55"/>
       <c r="C11" s="59"/>
       <c r="D11" s="55"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="59"/>
       <c r="B12" s="55"/>
       <c r="C12" s="59"/>
       <c r="D12" s="55"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="55"/>
       <c r="C13" s="59"/>
       <c r="D13" s="55"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="59"/>
       <c r="B14" s="55"/>
       <c r="C14" s="59"/>
       <c r="D14" s="55"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="55"/>
       <c r="C15" s="59"/>
       <c r="D15" s="55"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="55"/>
       <c r="C16" s="59"/>
       <c r="D16" s="55"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="55"/>
       <c r="C17" s="59"/>
       <c r="D17" s="55"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="55"/>
       <c r="C18" s="59"/>
       <c r="D18" s="55"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="55"/>
       <c r="C19" s="59"/>
       <c r="D19" s="55"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="55"/>
       <c r="C20" s="59"/>
       <c r="D20" s="55"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="55"/>
       <c r="C21" s="59"/>
       <c r="D21" s="55"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="55"/>
       <c r="C22" s="59"/>
       <c r="D22" s="55"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="55"/>
       <c r="C23" s="59"/>
       <c r="D23" s="55"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="55"/>
       <c r="C24" s="59"/>
       <c r="D24" s="55"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="55"/>
       <c r="C25" s="59"/>
       <c r="D25" s="55"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
       <c r="B26" s="55"/>
       <c r="C26" s="59"/>
       <c r="D26" s="55"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
       <c r="B27" s="55"/>
       <c r="C27" s="59"/>
       <c r="D27" s="55"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="55"/>
       <c r="C28" s="59"/>
       <c r="D28" s="55"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="55"/>
       <c r="C29" s="59"/>
